--- a/assets/files/name.xlsx
+++ b/assets/files/name.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L\Desktop\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L\Desktop\Flutter_Project\testttttttttttt\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>yamen</t>
-  </si>
-  <si>
-    <t>محمد نديم الحلاق</t>
+    <t>انما الاعمال بالنيات وانما لكل امرئ ما نوى فمن كانت هجرته الى الله و رسوله فهجرته الى الله و رسوله و من كانت هجرته لدنيا يصيبها او امراه ينكحها فهجرته الى ما هاجر اليه</t>
   </si>
 </sst>
 </file>
@@ -340,34 +337,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="93" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="162" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/assets/files/name.xlsx
+++ b/assets/files/name.xlsx
@@ -21,7 +21,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>انما الاعمال بالنيات وانما لكل امرئ ما نوى فمن كانت هجرته الى الله و رسوله فهجرته الى الله و رسوله و من كانت هجرته لدنيا يصيبها او امراه ينكحها فهجرته الى ما هاجر اليه</t>
+    <t>انما الاعمال بالنيات وانما لكل امرئ ما نوى فمن كانت هجرته الى الله ورسوله فهجرته الى الله ورسوله و من كانت هجرته لدنيا يصيبها او امراه ينكحها فهجرته الى ما هاجر اليه</t>
   </si>
 </sst>
 </file>

--- a/assets/files/name.xlsx
+++ b/assets/files/name.xlsx
@@ -21,7 +21,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>انما الاعمال بالنيات وانما لكل امرئ ما نوى فمن كانت هجرته الى الله ورسوله فهجرته الى الله ورسوله و من كانت هجرته لدنيا يصيبها او امراه ينكحها فهجرته الى ما هاجر اليه</t>
+    <t>انما الاعمال بالنيات وانما لكل امرئ ما نوى فمن كانت هجرته الى الله ورسوله فهجرته الى الله ورسوله ومن كانت هجرته لدنيا يصيبها او امراه ينكحها فهجرته الى ما هاجر اليه</t>
   </si>
 </sst>
 </file>
